--- a/TP1/Libro1.xlsx
+++ b/TP1/Libro1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Lanzamiento</t>
   </si>
@@ -36,13 +36,34 @@
   </si>
   <si>
     <t>Solucion Torneo</t>
+  </si>
+  <si>
+    <t>Mínimo</t>
+  </si>
+  <si>
+    <t>Máximo</t>
+  </si>
+  <si>
+    <t>Promedio</t>
+  </si>
+  <si>
+    <t>Desv .Est.</t>
+  </si>
+  <si>
+    <t>Ranking</t>
+  </si>
+  <si>
+    <t>Ruleta</t>
+  </si>
+  <si>
+    <t>Torneo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,6 +77,22 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -65,7 +102,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -73,13 +110,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,453 +415,510 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:H31"/>
+  <dimension ref="C1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="I5" sqref="I5:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C1" t="s">
+    <row r="1" spans="3:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C2">
+    <row r="2" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>1000000010</v>
-      </c>
-      <c r="E2">
-        <v>1001000011</v>
-      </c>
-      <c r="F2">
-        <v>111111111</v>
+      <c r="D2" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="E2" s="2">
+        <v>-0.03</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2.0299999999999998</v>
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C3">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="D3">
-        <v>1000010000</v>
-      </c>
-      <c r="E3">
-        <v>1000001000</v>
-      </c>
-      <c r="F3">
-        <v>111010010</v>
-      </c>
-    </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C4">
+      <c r="D3" s="2">
+        <v>-1.97</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1.6060000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C4" s="2">
         <v>3</v>
       </c>
-      <c r="D4">
-        <v>111111101</v>
-      </c>
-      <c r="E4">
-        <v>111110111</v>
-      </c>
-      <c r="F4">
-        <v>1000010110</v>
-      </c>
-    </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C5">
+      <c r="D4" s="2">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3.0609999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C5" s="2">
         <v>4</v>
       </c>
-      <c r="D5">
-        <v>111111100</v>
-      </c>
-      <c r="E5">
-        <v>111111001</v>
-      </c>
-      <c r="F5">
-        <v>101011111</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C6">
+      <c r="D5" s="2">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="E5" s="2">
+        <v>-0.03</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D6">
-        <v>1000001000</v>
-      </c>
-      <c r="E6">
-        <v>111111111</v>
-      </c>
-      <c r="F6">
-        <v>111011000</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C7">
+      <c r="M5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-0.27300000000000002</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>-4.6360000000000001</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="2">
+        <v>-1.97</v>
+      </c>
+      <c r="K6" s="2">
+        <v>-0.23599999999999999</v>
+      </c>
+      <c r="L6" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.78500000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C7" s="2">
         <v>6</v>
       </c>
-      <c r="D7">
-        <v>1000100001</v>
-      </c>
-      <c r="E7">
-        <v>111111001</v>
-      </c>
-      <c r="F7">
-        <v>1000000000</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C8">
+      <c r="D7" s="2">
+        <v>-0.03</v>
+      </c>
+      <c r="E7" s="2">
+        <v>-9.0999999999999998E-2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>9.9090000000000007</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="2">
+        <v>-3.9089999999999998</v>
+      </c>
+      <c r="K7" s="2">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="L7" s="2">
+        <v>4.2729999999999997</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1.117</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C8" s="2">
         <v>7</v>
       </c>
-      <c r="D8">
-        <v>111111011</v>
-      </c>
-      <c r="E8">
-        <v>1000000000</v>
-      </c>
-      <c r="F8">
-        <v>1001000011</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C9">
+      <c r="D8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="2">
+        <v>-29.545000000000002</v>
+      </c>
+      <c r="K8" s="2">
+        <v>-0.92900000000000005</v>
+      </c>
+      <c r="L8" s="2">
+        <v>9.9090000000000007</v>
+      </c>
+      <c r="M8" s="2">
+        <v>5.9210000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C9" s="2">
         <v>8</v>
       </c>
-      <c r="D9">
-        <v>111111111</v>
-      </c>
-      <c r="E9">
-        <v>1000010000</v>
-      </c>
-      <c r="F9">
-        <v>111111010</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C10">
+      <c r="D9" s="2">
+        <v>-9.0999999999999998E-2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.63600000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C10" s="2">
         <v>9</v>
       </c>
-      <c r="D10">
-        <v>111111011</v>
-      </c>
-      <c r="E10">
-        <v>111111100</v>
-      </c>
-      <c r="F10">
-        <v>1000000010</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C11">
+      <c r="D10" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="E10" s="2">
+        <v>-0.03</v>
+      </c>
+      <c r="F10" s="2">
+        <v>-1.1819999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C11" s="2">
         <v>10</v>
       </c>
-      <c r="D11">
-        <v>111011011</v>
-      </c>
-      <c r="E11">
-        <v>1000000000</v>
-      </c>
-      <c r="F11">
-        <v>111110000</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C12">
+      <c r="D11" s="2">
+        <v>-1.242</v>
+      </c>
+      <c r="E11" s="2">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>-3.6669999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C12" s="2">
         <v>11</v>
       </c>
-      <c r="D12">
-        <v>1000100001</v>
-      </c>
-      <c r="E12">
-        <v>111111111</v>
-      </c>
-      <c r="F12">
-        <v>1000000010</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C13">
+      <c r="D12" s="2">
+        <v>-1.97</v>
+      </c>
+      <c r="E12" s="2">
+        <v>-0.21199999999999999</v>
+      </c>
+      <c r="F12" s="2">
+        <v>-0.21199999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C13" s="2">
         <v>12</v>
       </c>
-      <c r="D13">
-        <v>101111101</v>
-      </c>
-      <c r="E13">
-        <v>1000000011</v>
-      </c>
-      <c r="F13">
-        <v>111100110</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C14">
+      <c r="D13" s="2">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>-0.03</v>
+      </c>
+      <c r="F13" s="2">
+        <v>-29.545000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C14" s="2">
         <v>13</v>
       </c>
-      <c r="D14">
-        <v>1000000100</v>
-      </c>
-      <c r="E14">
-        <v>111111111</v>
-      </c>
-      <c r="F14">
-        <v>1000010000</v>
-      </c>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C15">
+      <c r="D14" s="2">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="E14" s="2">
+        <v>-0.27300000000000002</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.51500000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C15" s="2">
         <v>14</v>
       </c>
-      <c r="D15">
-        <v>1000000000</v>
-      </c>
-      <c r="E15">
-        <v>1000000010</v>
-      </c>
-      <c r="F15">
-        <v>111111000</v>
-      </c>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C16">
+      <c r="D15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>-0.51500000000000001</v>
+      </c>
+      <c r="F15" s="2">
+        <v>-1.3640000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C16" s="2">
         <v>15</v>
       </c>
-      <c r="D16">
-        <v>111100110</v>
-      </c>
-      <c r="E16">
-        <v>1001000000</v>
-      </c>
-      <c r="F16">
-        <v>111110111</v>
+      <c r="D16" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="E16" s="2">
+        <v>-0.39400000000000002</v>
+      </c>
+      <c r="F16" s="2">
+        <v>-0.27300000000000002</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C17">
+      <c r="C17" s="2">
         <v>16</v>
       </c>
-      <c r="D17">
-        <v>101111111</v>
-      </c>
-      <c r="E17">
-        <v>111111111</v>
-      </c>
-      <c r="F17">
-        <v>1000001000</v>
+      <c r="D17" s="2">
+        <v>0.152</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.45500000000000002</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C18">
+      <c r="C18" s="2">
         <v>17</v>
       </c>
-      <c r="D18">
-        <v>1000000001</v>
-      </c>
-      <c r="E18">
-        <v>111111101</v>
-      </c>
-      <c r="F18">
-        <v>111111101</v>
+      <c r="D18" s="2">
+        <v>-0.51500000000000001</v>
+      </c>
+      <c r="E18" s="2">
+        <v>-0.03</v>
+      </c>
+      <c r="F18" s="2">
+        <v>-0.63600000000000001</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C19">
+      <c r="C19" s="2">
         <v>18</v>
       </c>
-      <c r="D19">
-        <v>1000000001</v>
-      </c>
-      <c r="E19">
-        <v>1000000000</v>
-      </c>
-      <c r="F19">
-        <v>111111111</v>
+      <c r="D19" s="2">
+        <v>0.152</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.152</v>
+      </c>
+      <c r="F19" s="2">
+        <v>-3.0609999999999999</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C20">
+      <c r="C20" s="2">
         <v>19</v>
       </c>
-      <c r="D20">
-        <v>111010111</v>
-      </c>
-      <c r="E20">
-        <v>111111110</v>
-      </c>
-      <c r="F20">
-        <v>111111111</v>
+      <c r="D20" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="E20" s="2">
+        <v>-0.03</v>
+      </c>
+      <c r="F20" s="2">
+        <v>-9.0999999999999998E-2</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C21">
+      <c r="C21" s="2">
         <v>20</v>
       </c>
-      <c r="D21">
-        <v>111111111</v>
-      </c>
-      <c r="E21">
-        <v>1000111000</v>
-      </c>
-      <c r="F21">
-        <v>111101110</v>
+      <c r="D21" s="2">
+        <v>-1.97</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.03</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C22">
+      <c r="C22" s="2">
         <v>21</v>
       </c>
-      <c r="D22">
-        <v>111111101</v>
-      </c>
-      <c r="E22">
-        <v>111111110</v>
-      </c>
-      <c r="F22">
-        <v>1000000001</v>
+      <c r="D22" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="E22" s="2">
+        <v>-0.03</v>
+      </c>
+      <c r="F22" s="2">
+        <v>9.0999999999999998E-2</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C23">
+      <c r="C23" s="2">
         <v>22</v>
       </c>
-      <c r="D23">
-        <v>1000000001</v>
-      </c>
-      <c r="E23">
-        <v>1000000010</v>
-      </c>
-      <c r="F23">
-        <v>1000000100</v>
+      <c r="D23" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1.0609999999999999</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C24">
+      <c r="C24" s="2">
         <v>23</v>
       </c>
-      <c r="D24">
-        <v>1000000000</v>
-      </c>
-      <c r="E24">
-        <v>1000000000</v>
-      </c>
-      <c r="F24">
-        <v>110111111</v>
+      <c r="D24" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="E24" s="2">
+        <v>-0.03</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.51500000000000001</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C25">
+      <c r="C25" s="2">
         <v>24</v>
       </c>
-      <c r="D25">
-        <v>1000010100</v>
-      </c>
-      <c r="E25">
-        <v>111011111</v>
-      </c>
-      <c r="F25">
-        <v>1000011001</v>
+      <c r="D25" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="E25" s="2">
+        <v>-0.03</v>
+      </c>
+      <c r="F25" s="2">
+        <v>-0.81799999999999995</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C26">
+      <c r="C26" s="2">
         <v>25</v>
       </c>
-      <c r="D26">
-        <v>111111111</v>
-      </c>
-      <c r="E26">
-        <v>111111101</v>
-      </c>
-      <c r="F26">
-        <v>1010000010</v>
+      <c r="D26" s="2">
+        <v>-0.152</v>
+      </c>
+      <c r="E26" s="2">
+        <v>-0.45500000000000002</v>
+      </c>
+      <c r="F26" s="2">
+        <v>-3</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C27">
+      <c r="C27" s="2">
         <v>26</v>
       </c>
-      <c r="D27">
-        <v>1000000100</v>
-      </c>
-      <c r="E27">
-        <v>1000000000</v>
-      </c>
-      <c r="F27">
-        <v>111110000</v>
+      <c r="D27" s="2">
+        <v>-0.03</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.27300000000000002</v>
       </c>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C28">
+      <c r="C28" s="2">
         <v>27</v>
       </c>
-      <c r="D28">
-        <v>1000100000</v>
-      </c>
-      <c r="E28">
-        <v>1000000001</v>
-      </c>
-      <c r="F28">
-        <v>111101001</v>
+      <c r="D28" s="2">
+        <v>-0.03</v>
+      </c>
+      <c r="E28" s="2">
+        <v>-3.9089999999999998</v>
+      </c>
+      <c r="F28" s="2">
+        <v>-4.3940000000000001</v>
       </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C29">
+      <c r="C29" s="2">
         <v>28</v>
       </c>
-      <c r="D29">
-        <v>111111111</v>
-      </c>
-      <c r="E29">
-        <v>111111110</v>
-      </c>
-      <c r="F29">
-        <v>111101110</v>
+      <c r="D29" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.27300000000000002</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C30">
+      <c r="C30" s="2">
         <v>29</v>
       </c>
-      <c r="D30">
-        <v>1000000001</v>
-      </c>
-      <c r="E30">
-        <v>111110011</v>
-      </c>
-      <c r="F30">
-        <v>111111110</v>
+      <c r="D30" s="2">
+        <v>-0.39400000000000002</v>
+      </c>
+      <c r="E30" s="2">
+        <v>4.2729999999999997</v>
+      </c>
+      <c r="F30" s="2">
+        <v>3.1819999999999999</v>
       </c>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C31">
+      <c r="C31" s="2">
         <v>30</v>
       </c>
-      <c r="D31">
-        <v>111111111</v>
-      </c>
-      <c r="E31">
-        <v>1000000001</v>
-      </c>
-      <c r="F31">
-        <v>1000000001</v>
+      <c r="D31" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0.45500000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/TP1/Libro1.xlsx
+++ b/TP1/Libro1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Lanzamiento</t>
   </si>
@@ -57,12 +57,36 @@
   </si>
   <si>
     <t>Torneo</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>TM</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>GEN</t>
+  </si>
+  <si>
+    <t>APT</t>
+  </si>
+  <si>
+    <t>Solucion</t>
+  </si>
+  <si>
+    <t>Parametro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.0"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -102,7 +126,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -125,16 +149,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:M8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -654,6 +693,18 @@
       <c r="F12" s="2">
         <v>-0.21199999999999999</v>
       </c>
+      <c r="I12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C13" s="2">
@@ -668,6 +719,18 @@
       <c r="F13" s="2">
         <v>-29.545000000000002</v>
       </c>
+      <c r="I13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="2">
+        <v>10</v>
+      </c>
+      <c r="K13" s="2">
+        <v>10</v>
+      </c>
+      <c r="L13" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C14" s="2">
@@ -682,6 +745,18 @@
       <c r="F14" s="2">
         <v>0.51500000000000001</v>
       </c>
+      <c r="I14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="15" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C15" s="2">
@@ -696,6 +771,18 @@
       <c r="F15" s="2">
         <v>-1.3640000000000001</v>
       </c>
+      <c r="I15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="16" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C16" s="2">
@@ -710,8 +797,20 @@
       <c r="F16" s="2">
         <v>-0.27300000000000002</v>
       </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="I16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="2">
+        <v>20</v>
+      </c>
+      <c r="K16" s="2">
+        <v>20</v>
+      </c>
+      <c r="L16" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="2">
         <v>16</v>
       </c>
@@ -724,8 +823,20 @@
       <c r="F17" s="2">
         <v>0.45500000000000002</v>
       </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="I17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="2">
+        <v>521.29999999999995</v>
+      </c>
+      <c r="K17" s="2">
+        <v>521.29999999999995</v>
+      </c>
+      <c r="L17" s="2">
+        <v>521.29999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="2">
         <v>17</v>
       </c>
@@ -738,8 +849,20 @@
       <c r="F18" s="2">
         <v>-0.63600000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="I18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="2">
         <v>18</v>
       </c>
@@ -753,7 +876,7 @@
         <v>-3.0609999999999999</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="2">
         <v>19</v>
       </c>
@@ -767,7 +890,7 @@
         <v>-9.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="2">
         <v>20</v>
       </c>
@@ -781,7 +904,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="2">
         <v>21</v>
       </c>
@@ -794,8 +917,11 @@
       <c r="F22" s="2">
         <v>9.0999999999999998E-2</v>
       </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="I22">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="2">
         <v>22</v>
       </c>
@@ -808,8 +934,12 @@
       <c r="F23" s="2">
         <v>1.0609999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="I23">
+        <f>I22^2</f>
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="2">
         <v>23</v>
       </c>
@@ -822,8 +952,15 @@
       <c r="F24" s="2">
         <v>0.51500000000000001</v>
       </c>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="H24">
+        <v>1E-3</v>
+      </c>
+      <c r="I24" s="5">
+        <f>1/(I23+H24)</f>
+        <v>526.31578947368416</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="2">
         <v>24</v>
       </c>
@@ -837,7 +974,7 @@
         <v>-0.81799999999999995</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="2">
         <v>25</v>
       </c>
@@ -851,7 +988,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="2">
         <v>26</v>
       </c>
@@ -865,7 +1002,7 @@
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="2">
         <v>27</v>
       </c>
@@ -879,7 +1016,7 @@
         <v>-4.3940000000000001</v>
       </c>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="2">
         <v>28</v>
       </c>
@@ -893,7 +1030,7 @@
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="2">
         <v>29</v>
       </c>
@@ -907,7 +1044,7 @@
         <v>3.1819999999999999</v>
       </c>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="2">
         <v>30</v>
       </c>
